--- a/artfynd/A 5490-2019.xlsx
+++ b/artfynd/A 5490-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY2"/>
+  <dimension ref="A1:AY4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,7 +680,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112139656</v>
+        <v>112139397</v>
       </c>
       <c r="B2" t="n">
         <v>29899</v>
@@ -713,7 +713,21 @@
           <t>(Latreille, 1798)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>hona</t>
+        </is>
+      </c>
       <c r="N2" t="inlineStr">
         <is>
           <t>fönsterfälla</t>
@@ -755,7 +769,7 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2013-05-01</t>
+          <t>2013-05-08</t>
         </is>
       </c>
       <c r="Z2" t="inlineStr">
@@ -765,7 +779,7 @@
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2013-05-08</t>
+          <t>2013-05-16</t>
         </is>
       </c>
       <c r="AB2" t="inlineStr">
@@ -806,6 +820,268 @@
       <c r="AY2" t="inlineStr">
         <is>
           <t>Åsums fure 2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>112156964</v>
+      </c>
+      <c r="B3" t="n">
+        <v>39449</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>102471</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Åkerväddsantennmal</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Nemophora metallica</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>(Poda, 1761)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Åsums fure, delomr 19, 580 m NO om mc-banans ledningstorn, Sk</t>
+        </is>
+      </c>
+      <c r="Q3" t="n">
+        <v>445828.4356342637</v>
+      </c>
+      <c r="R3" t="n">
+        <v>6205165.305277914</v>
+      </c>
+      <c r="S3" t="n">
+        <v>10</v>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="Y3" t="inlineStr">
+        <is>
+          <t>2013-07-11</t>
+        </is>
+      </c>
+      <c r="Z3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA3" t="inlineStr">
+        <is>
+          <t>2013-07-11</t>
+        </is>
+      </c>
+      <c r="AB3" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="inlineStr">
+        <is>
+          <t>i gles tallskog</t>
+        </is>
+      </c>
+      <c r="AO3" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd</t>
+        </is>
+      </c>
+      <c r="AT3" t="inlineStr"/>
+      <c r="AW3" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX3" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AY3" t="inlineStr">
+        <is>
+          <t>Åsums fure 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>112156959</v>
+      </c>
+      <c r="B4" t="n">
+        <v>39449</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>102471</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Åkerväddsantennmal</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Nemophora metallica</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(Poda, 1761)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Åsums fure, delomr 19, 580 m NO om mc-banans ledningstorn, Sk</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>445824.5356392039</v>
+      </c>
+      <c r="R4" t="n">
+        <v>6205211.776568725</v>
+      </c>
+      <c r="S4" t="n">
+        <v>10</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="Y4" t="inlineStr">
+        <is>
+          <t>2013-07-11</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA4" t="inlineStr">
+        <is>
+          <t>2013-07-11</t>
+        </is>
+      </c>
+      <c r="AB4" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG4" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>i tallskogsbryn</t>
+        </is>
+      </c>
+      <c r="AO4" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd</t>
+        </is>
+      </c>
+      <c r="AT4" t="inlineStr"/>
+      <c r="AW4" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX4" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AY4" t="inlineStr">
+        <is>
+          <t>Åsums fure 2013</t>
         </is>
       </c>
     </row>

--- a/artfynd/A 5490-2019.xlsx
+++ b/artfynd/A 5490-2019.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY4"/>
+  <dimension ref="A1:AY5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -809,23 +809,23 @@
       <c r="AT2" t="inlineStr"/>
       <c r="AW2" t="inlineStr">
         <is>
-          <t>Nils-Otto Nilsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AX2" t="inlineStr">
         <is>
-          <t>Nils-Otto Nilsson</t>
+          <t>Nils Otto Nilsson</t>
         </is>
       </c>
       <c r="AY2" t="inlineStr">
         <is>
-          <t>Åsums fure 2023</t>
+          <t>Åsums fure 2013</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112156964</v>
+        <v>112156959</v>
       </c>
       <c r="B3" t="n">
         <v>39449</v>
@@ -870,10 +870,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>445828.4356342637</v>
+        <v>445824.5356392039</v>
       </c>
       <c r="R3" t="n">
-        <v>6205165.305277914</v>
+        <v>6205211.776568725</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -929,7 +929,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>i gles tallskog</t>
+          <t>i tallskogsbryn</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
@@ -956,10 +956,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112156959</v>
+        <v>112141528</v>
       </c>
       <c r="B4" t="n">
-        <v>39449</v>
+        <v>4755</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -968,31 +968,45 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102471</v>
+        <v>100857</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
+          <t>Strand, 1938</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1001,10 +1015,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445824.5356392039</v>
+        <v>445824.022709821</v>
       </c>
       <c r="R4" t="n">
-        <v>6205211.776568725</v>
+        <v>6205170.953796315</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1031,7 +1045,7 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-16</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
@@ -1041,7 +1055,7 @@
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-24</t>
         </is>
       </c>
       <c r="AB4" t="inlineStr">
@@ -1060,12 +1074,22 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>i tallskogsbryn</t>
+          <t>i gles tallskog</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på nydöd tall, delvis barklös</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>NON 04741</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1080,6 +1104,137 @@
         </is>
       </c>
       <c r="AY4" t="inlineStr">
+        <is>
+          <t>Åsums fure 2013</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>112156964</v>
+      </c>
+      <c r="B5" t="n">
+        <v>39449</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>102471</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Åkerväddsantennmal</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Nemophora metallica</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(Poda, 1761)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Åsums fure, delomr 19, 580 m NO om mc-banans ledningstorn, Sk</t>
+        </is>
+      </c>
+      <c r="Q5" t="n">
+        <v>445828.4356342637</v>
+      </c>
+      <c r="R5" t="n">
+        <v>6205165.305277914</v>
+      </c>
+      <c r="S5" t="n">
+        <v>10</v>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>Skåne</t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Kristianstad</t>
+        </is>
+      </c>
+      <c r="Y5" t="inlineStr">
+        <is>
+          <t>2013-07-11</t>
+        </is>
+      </c>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AA5" t="inlineStr">
+        <is>
+          <t>2013-07-11</t>
+        </is>
+      </c>
+      <c r="AB5" t="inlineStr">
+        <is>
+          <t>00:00</t>
+        </is>
+      </c>
+      <c r="AD5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG5" t="b">
+        <v>0</v>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>i gles tallskog</t>
+        </is>
+      </c>
+      <c r="AO5" t="inlineStr">
+        <is>
+          <t>på blmr av åkervädd</t>
+        </is>
+      </c>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AX5" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AY5" t="inlineStr">
         <is>
           <t>Åsums fure 2013</t>
         </is>

--- a/artfynd/A 5490-2019.xlsx
+++ b/artfynd/A 5490-2019.xlsx
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>445824.022709821</v>
+        <v>445824</v>
       </c>
       <c r="R2" t="n">
-        <v>6205170.953796315</v>
+        <v>6205171</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -772,19 +772,9 @@
           <t>2013-05-08</t>
         </is>
       </c>
-      <c r="Z2" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA2" t="inlineStr">
         <is>
           <t>2013-05-16</t>
-        </is>
-      </c>
-      <c r="AB2" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -825,10 +815,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112156959</v>
+        <v>112141528</v>
       </c>
       <c r="B3" t="n">
-        <v>39449</v>
+        <v>4755</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -837,31 +827,45 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102471</v>
+        <v>100857</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>födosökande</t>
+          <t>Strand, 1938</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -870,10 +874,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>445824.5356392039</v>
+        <v>445824</v>
       </c>
       <c r="R3" t="n">
-        <v>6205211.776568725</v>
+        <v>6205171</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -900,22 +904,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
-        </is>
-      </c>
-      <c r="Z3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2013-05-16</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
-        </is>
-      </c>
-      <c r="AB3" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2013-05-24</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -929,12 +923,22 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>i tallskogsbryn</t>
+          <t>i gles tallskog</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på nydöd tall, delvis barklös</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>NON 04741</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -956,10 +960,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112141528</v>
+        <v>112156959</v>
       </c>
       <c r="B4" t="n">
-        <v>4755</v>
+        <v>39449</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -968,45 +972,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100857</v>
+        <v>102471</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
+          <t>(Poda, 1761)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1015,10 +1005,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445824.022709821</v>
+        <v>445825</v>
       </c>
       <c r="R4" t="n">
-        <v>6205170.953796315</v>
+        <v>6205212</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1045,22 +1035,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-05-16</t>
-        </is>
-      </c>
-      <c r="Z4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-05-24</t>
-        </is>
-      </c>
-      <c r="AB4" t="inlineStr">
-        <is>
-          <t>00:00</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1074,22 +1054,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>i gles tallskog</t>
+          <t>i tallskogsbryn</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>på nydöd tall, delvis barklös</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>NON 04741</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1156,10 +1126,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445828.4356342637</v>
+        <v>445828</v>
       </c>
       <c r="R5" t="n">
-        <v>6205165.305277914</v>
+        <v>6205165</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1189,19 +1159,9 @@
           <t>2013-07-11</t>
         </is>
       </c>
-      <c r="Z5" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA5" t="inlineStr">
         <is>
           <t>2013-07-11</t>
-        </is>
-      </c>
-      <c r="AB5" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AD5" t="b">

--- a/artfynd/A 5490-2019.xlsx
+++ b/artfynd/A 5490-2019.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112139397</v>
+        <v>112139656</v>
       </c>
       <c r="B2" t="n">
-        <v>29899</v>
+        <v>29905</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -713,21 +713,7 @@
           <t>(Latreille, 1798)</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>hona</t>
-        </is>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="N2" t="inlineStr">
         <is>
           <t>fönsterfälla</t>
@@ -769,12 +755,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
+          <t>2013-05-01</t>
+        </is>
+      </c>
+      <c r="AA2" t="inlineStr">
+        <is>
           <t>2013-05-08</t>
-        </is>
-      </c>
-      <c r="AA2" t="inlineStr">
-        <is>
-          <t>2013-05-16</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -815,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112141528</v>
+        <v>112156959</v>
       </c>
       <c r="B3" t="n">
-        <v>4755</v>
+        <v>39455</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -827,45 +813,31 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100857</v>
+        <v>102471</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
+          <t>(Poda, 1761)</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -874,10 +846,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>445824</v>
+        <v>445825</v>
       </c>
       <c r="R3" t="n">
-        <v>6205171</v>
+        <v>6205212</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -904,12 +876,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-05-16</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-05-24</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -923,22 +895,12 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>i gles tallskog</t>
+          <t>i tallskogsbryn</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>på nydöd tall, delvis barklös</t>
-        </is>
-      </c>
-      <c r="AQ3" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR3" t="inlineStr">
-        <is>
-          <t>NON 04741</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -960,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112156959</v>
+        <v>112141528</v>
       </c>
       <c r="B4" t="n">
-        <v>39449</v>
+        <v>4755</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -972,31 +934,45 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102471</v>
+        <v>100857</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
+          <t>Strand, 1938</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1005,10 +981,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445825</v>
+        <v>445824</v>
       </c>
       <c r="R4" t="n">
-        <v>6205212</v>
+        <v>6205171</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1035,12 +1011,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-16</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-24</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1054,12 +1030,22 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>i tallskogsbryn</t>
+          <t>i gles tallskog</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på nydöd tall, delvis barklös</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>NON 04741</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1084,7 +1070,7 @@
         <v>112156964</v>
       </c>
       <c r="B5" t="n">
-        <v>39449</v>
+        <v>39455</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>

--- a/artfynd/A 5490-2019.xlsx
+++ b/artfynd/A 5490-2019.xlsx
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112141528</v>
+        <v>112156964</v>
       </c>
       <c r="B4" t="n">
-        <v>4755</v>
+        <v>39455</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,45 +934,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100857</v>
+        <v>102471</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
+          <t>(Poda, 1761)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -981,10 +967,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445824</v>
+        <v>445828</v>
       </c>
       <c r="R4" t="n">
-        <v>6205171</v>
+        <v>6205165</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1011,12 +997,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-05-16</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-05-24</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1035,17 +1021,7 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>på nydöd tall, delvis barklös</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>NON 04741</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1067,10 +1043,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112156964</v>
+        <v>112141528</v>
       </c>
       <c r="B5" t="n">
-        <v>39455</v>
+        <v>4755</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1079,31 +1055,45 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>102471</v>
+        <v>100857</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>födosökande</t>
+          <t>Strand, 1938</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1112,10 +1102,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445828</v>
+        <v>445824</v>
       </c>
       <c r="R5" t="n">
-        <v>6205165</v>
+        <v>6205171</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1142,12 +1132,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-16</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-24</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1166,7 +1156,17 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på nydöd tall, delvis barklös</t>
+        </is>
+      </c>
+      <c r="AQ5" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR5" t="inlineStr">
+        <is>
+          <t>NON 04741</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>

--- a/artfynd/A 5490-2019.xlsx
+++ b/artfynd/A 5490-2019.xlsx
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112156964</v>
+        <v>112141528</v>
       </c>
       <c r="B4" t="n">
-        <v>39455</v>
+        <v>4755</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,31 +934,45 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>102471</v>
+        <v>100857</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>födosökande</t>
+          <t>Strand, 1938</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -967,10 +981,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445828</v>
+        <v>445824</v>
       </c>
       <c r="R4" t="n">
-        <v>6205165</v>
+        <v>6205171</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -997,12 +1011,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-16</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-24</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1021,7 +1035,17 @@
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på nydöd tall, delvis barklös</t>
+        </is>
+      </c>
+      <c r="AQ4" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR4" t="inlineStr">
+        <is>
+          <t>NON 04741</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
@@ -1043,10 +1067,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112141528</v>
+        <v>112156964</v>
       </c>
       <c r="B5" t="n">
-        <v>4755</v>
+        <v>39455</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1055,45 +1079,31 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>100857</v>
+        <v>102471</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
+          <t>(Poda, 1761)</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1102,10 +1112,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>445824</v>
+        <v>445828</v>
       </c>
       <c r="R5" t="n">
-        <v>6205171</v>
+        <v>6205165</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1132,12 +1142,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2013-05-16</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2013-05-24</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1156,17 +1166,7 @@
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>på nydöd tall, delvis barklös</t>
-        </is>
-      </c>
-      <c r="AQ5" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR5" t="inlineStr">
-        <is>
-          <t>NON 04741</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT5" t="inlineStr"/>

--- a/artfynd/A 5490-2019.xlsx
+++ b/artfynd/A 5490-2019.xlsx
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>112156959</v>
+        <v>112141528</v>
       </c>
       <c r="B3" t="n">
-        <v>39455</v>
+        <v>4755</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,31 +813,45 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>102471</v>
+        <v>100857</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Åkerväddsantennmal</t>
+          <t>Robust tickgnagare</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Nemophora metallica</t>
+          <t>Dorcatoma robusta</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Poda, 1761)</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>födosökande</t>
+          <t>Strand, 1938</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>ex.</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>imago/adult</t>
+        </is>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>fönsterfälla</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -846,10 +860,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>445825</v>
+        <v>445824</v>
       </c>
       <c r="R3" t="n">
-        <v>6205212</v>
+        <v>6205171</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -876,12 +890,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-16</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2013-07-11</t>
+          <t>2013-05-24</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -895,12 +909,22 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>i tallskogsbryn</t>
+          <t>i gles tallskog</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>på blmr av åkervädd</t>
+          <t>på nydöd tall, delvis barklös</t>
+        </is>
+      </c>
+      <c r="AQ3" t="inlineStr">
+        <is>
+          <t>Nils Otto Nilsson</t>
+        </is>
+      </c>
+      <c r="AR3" t="inlineStr">
+        <is>
+          <t>NON 04741</t>
         </is>
       </c>
       <c r="AT3" t="inlineStr"/>
@@ -922,10 +946,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>112141528</v>
+        <v>112156959</v>
       </c>
       <c r="B4" t="n">
-        <v>4755</v>
+        <v>39455</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -934,45 +958,31 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>100857</v>
+        <v>102471</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Robust tickgnagare</t>
+          <t>Åkerväddsantennmal</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Dorcatoma robusta</t>
+          <t>Nemophora metallica</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Strand, 1938</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>ex.</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>imago/adult</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>fönsterfälla</t>
+          <t>(Poda, 1761)</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>födosökande</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -981,10 +991,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>445824</v>
+        <v>445825</v>
       </c>
       <c r="R4" t="n">
-        <v>6205171</v>
+        <v>6205212</v>
       </c>
       <c r="S4" t="n">
         <v>10</v>
@@ -1011,12 +1021,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>2013-05-16</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
         <is>
-          <t>2013-05-24</t>
+          <t>2013-07-11</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1030,22 +1040,12 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>i gles tallskog</t>
+          <t>i tallskogsbryn</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>på nydöd tall, delvis barklös</t>
-        </is>
-      </c>
-      <c r="AQ4" t="inlineStr">
-        <is>
-          <t>Nils Otto Nilsson</t>
-        </is>
-      </c>
-      <c r="AR4" t="inlineStr">
-        <is>
-          <t>NON 04741</t>
+          <t>på blmr av åkervädd</t>
         </is>
       </c>
       <c r="AT4" t="inlineStr"/>
